--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Itga4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H2">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N2">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O2">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P2">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q2">
-        <v>59.45092105498166</v>
+        <v>0.2821601005241111</v>
       </c>
       <c r="R2">
-        <v>535.058289494835</v>
+        <v>2.539440904717</v>
       </c>
       <c r="S2">
-        <v>0.006567784250991197</v>
+        <v>4.28211659898852E-05</v>
       </c>
       <c r="T2">
-        <v>0.006567784250991197</v>
+        <v>4.282116598988518E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H3">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q3">
-        <v>0.1932430988976666</v>
+        <v>0.1528941819878889</v>
       </c>
       <c r="R3">
-        <v>1.739187890079</v>
+        <v>1.376047637891</v>
       </c>
       <c r="S3">
-        <v>2.13483485037862E-05</v>
+        <v>2.320351861808201E-05</v>
       </c>
       <c r="T3">
-        <v>2.13483485037862E-05</v>
+        <v>2.320351861808201E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H4">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N4">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q4">
-        <v>4.944496196467332</v>
+        <v>5.196808414664333</v>
       </c>
       <c r="R4">
-        <v>44.50046576820599</v>
+        <v>46.771275731979</v>
       </c>
       <c r="S4">
-        <v>0.0005462385388144099</v>
+        <v>0.0007886777589340902</v>
       </c>
       <c r="T4">
-        <v>0.00054623853881441</v>
+        <v>0.00078867775893409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H5">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I5">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J5">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N5">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q5">
-        <v>133.7136785135723</v>
+        <v>103.6030114353468</v>
       </c>
       <c r="R5">
-        <v>1203.423106622151</v>
+        <v>932.4271029181209</v>
       </c>
       <c r="S5">
-        <v>0.01477189211368747</v>
+        <v>0.01572299464553763</v>
       </c>
       <c r="T5">
-        <v>0.01477189211368748</v>
+        <v>0.01572299464553762</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J6">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N6">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O6">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P6">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q6">
-        <v>2197.862779237191</v>
+        <v>13.18410405172622</v>
       </c>
       <c r="R6">
-        <v>19780.76501313472</v>
+        <v>118.656936465536</v>
       </c>
       <c r="S6">
-        <v>0.2428068109149031</v>
+        <v>0.002000845289529673</v>
       </c>
       <c r="T6">
-        <v>0.2428068109149031</v>
+        <v>0.002000845289529672</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J7">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q7">
         <v>7.144074589169778</v>
@@ -883,10 +883,10 @@
         <v>64.296671302528</v>
       </c>
       <c r="S7">
-        <v>0.0007892348805035708</v>
+        <v>0.001084198663307531</v>
       </c>
       <c r="T7">
-        <v>0.0007892348805035709</v>
+        <v>0.001084198663307531</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>278.681984</v>
       </c>
       <c r="I8">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J8">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N8">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q8">
-        <v>182.7948828958435</v>
+        <v>242.8240660127147</v>
       </c>
       <c r="R8">
-        <v>1645.153946062592</v>
+        <v>2185.416594114432</v>
       </c>
       <c r="S8">
-        <v>0.02019409172710371</v>
+        <v>0.0368514528374318</v>
       </c>
       <c r="T8">
-        <v>0.02019409172710371</v>
+        <v>0.0368514528374318</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>278.681984</v>
       </c>
       <c r="I9">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J9">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N9">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q9">
-        <v>4943.309739609871</v>
+        <v>4840.914361380708</v>
       </c>
       <c r="R9">
-        <v>44489.78765648884</v>
+        <v>43568.22925242637</v>
       </c>
       <c r="S9">
-        <v>0.5461074661157093</v>
+        <v>0.7346665847738765</v>
       </c>
       <c r="T9">
-        <v>0.5461074661157093</v>
+        <v>0.7346665847738764</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H10">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N10">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O10">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P10">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q10">
-        <v>418.3326299337345</v>
+        <v>3.369524882778334</v>
       </c>
       <c r="R10">
-        <v>3764.99366940361</v>
+        <v>30.325723945005</v>
       </c>
       <c r="S10">
-        <v>0.04621490146491655</v>
+        <v>0.0005113656539123961</v>
       </c>
       <c r="T10">
-        <v>0.04621490146491655</v>
+        <v>0.000511365653912396</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H11">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I11">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J11">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.230717</v>
       </c>
       <c r="O11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q11">
-        <v>1.359775296057111</v>
+        <v>1.825845502901667</v>
       </c>
       <c r="R11">
-        <v>12.237977664514</v>
+        <v>16.432609526115</v>
       </c>
       <c r="S11">
-        <v>0.0001502198892103194</v>
+        <v>0.0002770938669443685</v>
       </c>
       <c r="T11">
-        <v>0.0001502198892103194</v>
+        <v>0.0002770938669443685</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H12">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I12">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J12">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N12">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q12">
-        <v>34.79246512686622</v>
+        <v>62.059714437715</v>
       </c>
       <c r="R12">
-        <v>313.132186141796</v>
+        <v>558.537429939435</v>
       </c>
       <c r="S12">
-        <v>0.003843664664203627</v>
+        <v>0.009418303042443038</v>
       </c>
       <c r="T12">
-        <v>0.003843664664203627</v>
+        <v>0.009418303042443038</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H13">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I13">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J13">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N13">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q13">
-        <v>940.8902973759631</v>
+        <v>1237.215766204118</v>
       </c>
       <c r="R13">
-        <v>8468.012676383667</v>
+        <v>11134.94189583707</v>
       </c>
       <c r="S13">
-        <v>0.1039439653306845</v>
+        <v>0.1877622725237242</v>
       </c>
       <c r="T13">
-        <v>0.1039439653306845</v>
+        <v>0.1877622725237241</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H14">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I14">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J14">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N14">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O14">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P14">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q14">
-        <v>38.10756824713221</v>
+        <v>0.1846752072562222</v>
       </c>
       <c r="R14">
-        <v>342.9681142241899</v>
+        <v>1.662076865306</v>
       </c>
       <c r="S14">
-        <v>0.004209897544659064</v>
+        <v>2.802666886440023E-05</v>
       </c>
       <c r="T14">
-        <v>0.004209897544659064</v>
+        <v>2.802666886440022E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H15">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I15">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J15">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.230717</v>
       </c>
       <c r="O15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q15">
-        <v>0.1238672916895555</v>
+        <v>0.1000700123597778</v>
       </c>
       <c r="R15">
-        <v>1.114805625206</v>
+        <v>0.9006301112380001</v>
       </c>
       <c r="S15">
-        <v>1.36841218459714E-05</v>
+        <v>1.518681982997712E-05</v>
       </c>
       <c r="T15">
-        <v>1.36841218459714E-05</v>
+        <v>1.518681982997712E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H16">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I16">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J16">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N16">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q16">
-        <v>3.16938279358711</v>
+        <v>3.401337287824667</v>
       </c>
       <c r="R16">
-        <v>28.52444514228399</v>
+        <v>30.612035590422</v>
       </c>
       <c r="S16">
-        <v>0.0003501345652463975</v>
+        <v>0.0005161935664148942</v>
       </c>
       <c r="T16">
-        <v>0.0003501345652463975</v>
+        <v>0.0005161935664148941</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H17">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I17">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J17">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N17">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q17">
-        <v>85.70940599589044</v>
+        <v>67.80869291459756</v>
       </c>
       <c r="R17">
-        <v>771.3846539630139</v>
+        <v>610.2782362313781</v>
       </c>
       <c r="S17">
-        <v>0.009468665529017064</v>
+        <v>0.0102907792046417</v>
       </c>
       <c r="T17">
-        <v>0.009468665529017064</v>
+        <v>0.0102907792046417</v>
       </c>
     </row>
   </sheetData>
